--- a/updatelist_kansen.xlsx
+++ b/updatelist_kansen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narawanozomi/Documents/4pro/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC9B4950-E8D7-DF47-8770-0A191DB70445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0ABDB7-899A-3C45-B7AC-EC4B27ACFF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
   <si>
     <t>問題</t>
   </si>
@@ -955,13 +955,88 @@
       </rPr>
       <t>宿主</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>選択肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>選択肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>選択肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1012,6 +1087,19 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1033,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1056,6 +1144,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1277,7 +1366,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1295,6 +1384,15 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">
